--- a/src/common/excel/samples/milking-event.xlsx
+++ b/src/common/excel/samples/milking-event.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t xml:space="preserve">animalid</t>
   </si>
@@ -28,25 +28,28 @@
     <t xml:space="preserve">milkdate</t>
   </si>
   <si>
-    <t xml:space="preserve">milkmor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milkmid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milkeve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mlksmptype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mlkfat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mlkprot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mlksmc</t>
+    <t xml:space="preserve">milk_morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk_midmorning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk_evening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk_qualitytested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk_sampletype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milk_fatcontent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mlk_protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mik_somatic_cell_count</t>
   </si>
   <si>
     <t xml:space="preserve">milkurea</t>
@@ -55,15 +58,34 @@
     <t xml:space="preserve">TZN000362738061</t>
   </si>
   <si>
-    <t xml:space="preserve">15/08/2018</t>
+    <t xml:space="preserve">2018-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZN000362738062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -129,8 +151,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -193,14 +219,17 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
       </c>
@@ -209,6 +238,149 @@
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
